--- a/data/tests/cluster_18.xlsx
+++ b/data/tests/cluster_18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,20 +463,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rv0867c</t>
+          <t>Rv3628</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>rpfA Rv0867c MTV043.60c</t>
+          <t>ppa Rv3628 MTCY15C10.24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FUNCTION: Factor that stimulates resuscitation of dormant cells. Has peptidoglycan (PG) hydrolytic activity. Active in the pM concentration range. Has little to no effect on actively-growing cells. PG fragments could either directly activate the resuscitation pathway of dormant bacteria or serve as a substrate for endogenous Rpf, resulting in low molecular weight products with resuscitation activity. Stimulates growth of stationary phase M.bovis (a slow-growing Mycobacterium), reduces the lag phase of diluted fast-growers M.smegmatis and Micrococcus luteus. {ECO:0000269|PubMed:12410821}.</t>
+          <t>FUNCTION: Catalyzes the hydrolysis of inorganic pyrophosphate (PPi) forming two phosphate ions. {ECO:0000269|PubMed:16239227, ECO:0000269|PubMed:26296329}.; FUNCTION: Antigen that activates dendritic cells (DCs), increasing their expression of cell surface molecules and augmenting their production of TNF-alpha, IL-1beta, IL-6, IL-23 and IL-12p70. Rv3628 mediates these effects by binding to TLR2 and activating downstream MyD88-, MAPK- and NF-kappaB-dependent signaling pathways. Rv3628-stimulated DCs induce the expansion of OVA-specific CD4+ and CD8+ T cells which secrete IFN-gamma and IL-2, and the generation of effector/memory T cells. Thus, Rv3628 polarizes DCs toward a Th1 immune response and promotes protective immunity against M.tuberculosis infection. Is not able to bind to TLR4 molecules on the cell surface. {ECO:0000269|PubMed:27097115}.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rv0017c</t>
+          <t>Rv0016c</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -494,12 +494,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>rodA Rv0017c MTCY10H4.17c</t>
+          <t>pbpA Rv0016c MTCY10H4.16c</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FUNCTION: Transglycosylase involved in peptidoglycan cell wall formation (PubMed:29530985). Required for the regulation of cell length. Plays critical roles for the survival of the pathogen inside the host. Required for both bacterial survival and formation of granuloma structures in a guinea pig infection model (PubMed:29530985). {ECO:0000269|PubMed:29530985}.</t>
+          <t>FUNCTION: Transpeptidase that catalyzes cross-linking of the peptidoglycan cell wall (Probable). Required for the regulation of cell length. Plays critical roles for the survival of the pathogen inside the host. Required for both bacterial survival and formation of granuloma structures in a guinea pig infection model (PubMed:29530985). {ECO:0000269|PubMed:29530985, ECO:0000305|PubMed:29530985}.</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rv3628</t>
+          <t>Rv0017c</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -517,12 +517,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ppa Rv3628 MTCY15C10.24</t>
+          <t>rodA Rv0017c MTCY10H4.17c</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the hydrolysis of inorganic pyrophosphate (PPi) forming two phosphate ions. {ECO:0000269|PubMed:16239227, ECO:0000269|PubMed:26296329}.; FUNCTION: Antigen that activates dendritic cells (DCs), increasing their expression of cell surface molecules and augmenting their production of TNF-alpha, IL-1beta, IL-6, IL-23 and IL-12p70. Rv3628 mediates these effects by binding to TLR2 and activating downstream MyD88-, MAPK- and NF-kappaB-dependent signaling pathways. Rv3628-stimulated DCs induce the expansion of OVA-specific CD4+ and CD8+ T cells which secrete IFN-gamma and IL-2, and the generation of effector/memory T cells. Thus, Rv3628 polarizes DCs toward a Th1 immune response and promotes protective immunity against M.tuberculosis infection. Is not able to bind to TLR4 molecules on the cell surface. {ECO:0000269|PubMed:27097115}.</t>
+          <t>FUNCTION: Transglycosylase involved in peptidoglycan cell wall formation (PubMed:29530985). Required for the regulation of cell length. Plays critical roles for the survival of the pathogen inside the host. Required for both bacterial survival and formation of granuloma structures in a guinea pig infection model (PubMed:29530985). {ECO:0000269|PubMed:29530985}.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rv3586</t>
+          <t>Rv0533c</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -540,12 +540,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>disA dacA Rv3586</t>
+          <t>fabH Rv0533c MTCY25D10.12c</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FUNCTION: Participates in a DNA-damage check-point. DisA forms globular foci that rapidly scan along the chromosomes searching for lesions. {ECO:0000255|HAMAP-Rule:MF_01438}.; FUNCTION: Has also diadenylate cyclase activity, catalyzing the condensation of 2 ATP molecules into cyclic di-AMP (c-di-AMP). c-di-AMP likely acts as a signaling molecule that may couple DNA integrity with a cellular process. To a lesser extent, can also use ADP as substrate to produce c-di-AMP. Does not convert GTP to c-di-GMP. Also exhibits residual ATPase and ADPase activities in vitro. {ECO:0000255|HAMAP-Rule:MF_01438, ECO:0000269|PubMed:22529992}.</t>
+          <t>FUNCTION: Catalyzes the condensation reaction of fatty acid synthesis by the addition to an acyl acceptor of two carbons from malonyl-ACP. Catalyzes the first condensation reaction which initiates fatty acid synthesis and may therefore play a role in governing the total rate of fatty acid production. Possesses both acetoacetyl-ACP synthase and acetyl transacylase activities. Possesses a clear preference for long-chain acyl-CoA substrates rather than acyl-ACP primers, and shows only weak activity with acetyl-CoA. Its substrate specificity determines the biosynthesis of mycolic acid fatty acid chain, which is characteristic of mycobacterial cell wall. {ECO:0000269|PubMed:10840036, ECO:0000269|PubMed:11278743}.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -555,20 +555,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rv2495c</t>
+          <t>Rv0503c</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>bkdC pdhC Rv2495c</t>
+          <t>cmaA2 cma2 CMAS-2 Rv0503c MTCY20G9.30c</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FUNCTION: Component of the branched-chain alpha-ketoacid dehydrogenase (BCKADH) complex, that catalyzes the overall conversion of branched-chain alpha-ketoacids to acyl-CoA and CO(2). {ECO:0000269|PubMed:21238944}.</t>
+          <t>FUNCTION: Catalyzes the formation of trans cyclopropanated ketomycolate or methoxymycolate through the conversion of a double bond to a cyclopropane ring at the proximal position of an oxygenated mycolic acid via the transfer of a methylene group from S-adenosyl-L-methionine. In the absence of MmaA2, CmaA2 has a non-specific cis-cyclopropanating activity and is able to catalyze the conversion of a double bond to a cis cyclopropane ring at the distal position of an alpha mycolic acid. Cyclopropanated mycolic acids are key factors participating in cell envelope permeability, host immunomodulation and persistence. {ECO:0000269|PubMed:11092877, ECO:0000269|PubMed:7592990}.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rv0503c</t>
+          <t>Rv3586</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -586,12 +586,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>cmaA2 cma2 CMAS-2 Rv0503c MTCY20G9.30c</t>
+          <t>disA dacA Rv3586</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the formation of trans cyclopropanated ketomycolate or methoxymycolate through the conversion of a double bond to a cyclopropane ring at the proximal position of an oxygenated mycolic acid via the transfer of a methylene group from S-adenosyl-L-methionine. In the absence of MmaA2, CmaA2 has a non-specific cis-cyclopropanating activity and is able to catalyze the conversion of a double bond to a cis cyclopropane ring at the distal position of an alpha mycolic acid. Cyclopropanated mycolic acids are key factors participating in cell envelope permeability, host immunomodulation and persistence. {ECO:0000269|PubMed:11092877, ECO:0000269|PubMed:7592990}.</t>
+          <t>FUNCTION: Participates in a DNA-damage check-point. DisA forms globular foci that rapidly scan along the chromosomes searching for lesions. {ECO:0000255|HAMAP-Rule:MF_01438}.; FUNCTION: Has also diadenylate cyclase activity, catalyzing the condensation of 2 ATP molecules into cyclic di-AMP (c-di-AMP). c-di-AMP likely acts as a signaling molecule that may couple DNA integrity with a cellular process. To a lesser extent, can also use ADP as substrate to produce c-di-AMP. Does not convert GTP to c-di-GMP. Also exhibits residual ATPase and ADPase activities in vitro. {ECO:0000255|HAMAP-Rule:MF_01438, ECO:0000269|PubMed:22529992}.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rv0483</t>
+          <t>Rv2171</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -609,12 +609,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>lprQ Rv0483 MTCY20G9.09</t>
+          <t>lppM Rv2171</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FUNCTION: Generates 3-&gt;3 cross-links in peptidoglycan, catalyzing the cleavage of the mDap(3)-D-Ala(4) bond of a tetrapeptide donor stem and the formation of a bond between the carbonyl of mDap(3) of the donor stem and the side chain of mDap(3) of the acceptor stem. Is specific for donor substrates containing a stem tetrapeptide since it cannot use pentapeptide stems. {ECO:0000269|PubMed:24041897}.</t>
+          <t>FUNCTION: A putative lipoprotein that seems to be specialized for the initial steps of macrophage infection (PubMed:27220037). A non-acylated fragment (residues 26-185) binds phosphatidyl-myo-inositol mannosides (PIMs) (PubMed:27568926). Limits, in a TLR2-dependent fashion, bacterial uptake by host (mouse); this effect may be mediated by nonacylated fragment 26-185 (PubMed:27220037). Plays a TLR2-dependent role in host phagosome maturation arrest (PubMed:20844580, PubMed:27220037). Plays a TLR2-independent role in chemokine production during the first 24 hours of mouse infection (PubMed:27220037). {ECO:0000269|PubMed:27568926, ECO:0000305|PubMed:20844580, ECO:0000305|PubMed:27220037}.</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -624,20 +624,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rv0533c</t>
+          <t>Rv0483</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>fabH Rv0533c MTCY25D10.12c</t>
+          <t>lprQ Rv0483 MTCY20G9.09</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the condensation reaction of fatty acid synthesis by the addition to an acyl acceptor of two carbons from malonyl-ACP. Catalyzes the first condensation reaction which initiates fatty acid synthesis and may therefore play a role in governing the total rate of fatty acid production. Possesses both acetoacetyl-ACP synthase and acetyl transacylase activities. Possesses a clear preference for long-chain acyl-CoA substrates rather than acyl-ACP primers, and shows only weak activity with acetyl-CoA. Its substrate specificity determines the biosynthesis of mycolic acid fatty acid chain, which is characteristic of mycobacterial cell wall. {ECO:0000269|PubMed:10840036, ECO:0000269|PubMed:11278743}.</t>
+          <t>FUNCTION: Generates 3-&gt;3 cross-links in peptidoglycan, catalyzing the cleavage of the mDap(3)-D-Ala(4) bond of a tetrapeptide donor stem and the formation of a bond between the carbonyl of mDap(3) of the donor stem and the side chain of mDap(3) of the acceptor stem. Is specific for donor substrates containing a stem tetrapeptide since it cannot use pentapeptide stems. {ECO:0000269|PubMed:24041897}.</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -647,7 +647,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Rv2171</t>
+          <t>Rv2495c</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -655,12 +655,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>lppM Rv2171</t>
+          <t>bkdC pdhC Rv2495c</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FUNCTION: A putative lipoprotein that seems to be specialized for the initial steps of macrophage infection (PubMed:27220037). A non-acylated fragment (residues 26-185) binds phosphatidyl-myo-inositol mannosides (PIMs) (PubMed:27568926). Limits, in a TLR2-dependent fashion, bacterial uptake by host (mouse); this effect may be mediated by nonacylated fragment 26-185 (PubMed:27220037). Plays a TLR2-dependent role in host phagosome maturation arrest (PubMed:20844580, PubMed:27220037). Plays a TLR2-independent role in chemokine production during the first 24 hours of mouse infection (PubMed:27220037). {ECO:0000269|PubMed:27568926, ECO:0000305|PubMed:20844580, ECO:0000305|PubMed:27220037}.</t>
+          <t>FUNCTION: Component of the branched-chain alpha-ketoacid dehydrogenase (BCKADH) complex, that catalyzes the overall conversion of branched-chain alpha-ketoacids to acyl-CoA and CO(2). {ECO:0000269|PubMed:21238944}.</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -670,7 +670,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rv0237</t>
+          <t>Rv2218</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -678,12 +678,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>lpqI Rv0237</t>
+          <t>lipA Rv2218 MTCY190.29</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FUNCTION: Plays a role in peptidoglycan recycling by cleaving the terminal beta-1,4-linked N-acetylglucosamine (GlcNAc) from peptidoglycan fragments. Acts as a regulator for GlcNAc-MurNAc levels by cleaving disaccharides and allowing the breakdown of MurNAc. {ECO:0000269|PubMed:31201321}.</t>
+          <t>FUNCTION: Catalyzes the radical-mediated insertion of two sulfur atoms into the C-6 and C-8 positions of the octanoyl moiety bound to the lipoyl domains of lipoate-dependent enzymes, thereby converting the octanoylated domains into lipoylated derivatives. {ECO:0000255|HAMAP-Rule:MF_00206, ECO:0000269|PubMed:26841001}.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -693,7 +693,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rv2218</t>
+          <t>Rv0237</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -701,12 +701,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>lipA Rv2218 MTCY190.29</t>
+          <t>lpqI Rv0237</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FUNCTION: Catalyzes the radical-mediated insertion of two sulfur atoms into the C-6 and C-8 positions of the octanoyl moiety bound to the lipoyl domains of lipoate-dependent enzymes, thereby converting the octanoylated domains into lipoylated derivatives. {ECO:0000255|HAMAP-Rule:MF_00206, ECO:0000269|PubMed:26841001}.</t>
+          <t>FUNCTION: Plays a role in peptidoglycan recycling by cleaving the terminal beta-1,4-linked N-acetylglucosamine (GlcNAc) from peptidoglycan fragments. Acts as a regulator for GlcNAc-MurNAc levels by cleaving disaccharides and allowing the breakdown of MurNAc. {ECO:0000269|PubMed:31201321}.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -716,23 +716,830 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Rv0016c</t>
+          <t>Rv0867c</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>pbpA Rv0016c MTCY10H4.16c</t>
+          <t>rpfA Rv0867c MTV043.60c</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FUNCTION: Transpeptidase that catalyzes cross-linking of the peptidoglycan cell wall (Probable). Required for the regulation of cell length. Plays critical roles for the survival of the pathogen inside the host. Required for both bacterial survival and formation of granuloma structures in a guinea pig infection model (PubMed:29530985). {ECO:0000269|PubMed:29530985, ECO:0000305|PubMed:29530985}.</t>
+          <t>FUNCTION: Factor that stimulates resuscitation of dormant cells. Has peptidoglycan (PG) hydrolytic activity. Active in the pM concentration range. Has little to no effect on actively-growing cells. PG fragments could either directly activate the resuscitation pathway of dormant bacteria or serve as a substrate for endogenous Rpf, resulting in low molecular weight products with resuscitation activity. Stimulates growth of stationary phase M.bovis (a slow-growing Mycobacterium), reduces the lag phase of diluted fast-growers M.smegmatis and Micrococcus luteus. {ECO:0000269|PubMed:12410821}.</t>
         </is>
       </c>
       <c r="E13" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Rv0643c</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>mmaA3 mma3 Rv0643c</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FUNCTION: Involved in the biosynthesis of methoxymycolic acid. It catalyzes the O-methylation of the hydroxy group of the hydroxymycolate to form a methyl ether. {ECO:0000269|PubMed:10852869, ECO:0000269|PubMed:9781881}.</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rv0860</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>fadB Rv0860</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rv0512</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>hemB Rv0512 MTCY20G10.02</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FUNCTION: Catalyzes an early step in the biosynthesis of tetrapyrroles. Binds two molecules of 5-aminolevulinate per subunit, each at a distinct site, and catalyzes their condensation to form porphobilinogen (By similarity). {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rv1539</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>lspA Rv1539 MTCY48.26c</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FUNCTION: This protein specifically catalyzes the removal of signal peptides from prolipoproteins. {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Rv1010</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ksgA rsmA Rv1010 MTCI237.27</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>FUNCTION: Specifically dimethylates two adjacent adenosines (A1518 and A1519) in the loop of a conserved hairpin near the 3'-end of 16S rRNA in the 30S particle. May play a critical role in biogenesis of 30S subunits. {ECO:0000255|HAMAP-Rule:MF_00607}.</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rv1825</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Rv1825 MTCY1A11.18c</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Rv3211</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>rhlE Rv3211</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Rv1078</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>pra Rv1078 MTV017.31</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Rv3682</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ponA2 Rv3682</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Rv3918c</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>parA Rv3918c</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Rv1823</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Rv1823 MTCY1A11.20c</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Rv0695</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>mftE Rv0695</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>FUNCTION: Peptidase involved in the biosynthesis of the enzyme cofactor mycofactocin (MFT). Catalyzes cleavage of the MftC-modified MftA peptide to liberate its final two residues, which consist of a cross-linked valine-decarboxylated tyrosine dipeptide (named 3-amino-5-[(4-hydroxyphenyl)methyl]-4,4-dimethyl-2-pyrrolidin-2-one or ADHP). {ECO:0000250|UniProtKB:A0PM51}.</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Rv2203</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Rv2203 MTCY190.14</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Rv0893c</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Rv0893c MTCY31.21c</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>FUNCTION: Exhibits S-adenosyl-L-methionine-dependent methyltransferase activity. {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Rv2363</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>amiA2 Rv2363 MTCY27.17c</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Rv3630</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Rv3630 MTCY15C10.22c</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Rv2214c</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ephD Rv2214c MTCY190.25c</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rv2091c</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Rv2091c MTCY49.31c</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Rv1282c</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Rv1282c MTCY373.01c MTCY3H3.01</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Rv3039c</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>echA17 Rv3039c</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>FUNCTION: Could possibly oxidize fatty acids using specific components. {ECO:0000250}.</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Rv1006</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Rv1006</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Rv0996</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Rv0996</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Rv3362c</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Rv3362c</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Rv2700</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Rv2700</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rv0466</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Rv0466</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Rv3205c</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Rv3205c</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Rv1824</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Rv1824 MTCY1A11.19c</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Rv2672</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Rv2672</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Rv0012</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Rv0012</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Rv0007</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Rv0007 MTCY10H4.05</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Rv3577</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Rv3577</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Rv3783</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>rfbD Rv3783</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Rv3249c</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Rv3249c</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Rv3311</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Rv3311</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Rv0361</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Rv0361</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Rv0383c</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Rv0383c</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Rv2138</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>lppL Rv2138</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Rv2197c</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Rv2197c MTCY190.08c</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Rv2331</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Rv2331A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Rv2331</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Rv2331 MTCY3G12.03c</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Rv1887</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Rv1887</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
         <v>18</v>
       </c>
     </row>
